--- a/pin_out.xlsx
+++ b/pin_out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.vanderweerd\Documents\PlatformIO\Projects\accel_stepper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22AA16C6-8291-45CD-94E4-F471285281BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DE9BC9-DF7F-44D1-8FED-183C36506B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="405" windowWidth="29040" windowHeight="15990" xr2:uid="{64765354-9D7D-4F47-919F-EB7FC1D4D33A}"/>
+    <workbookView xWindow="-28800" yWindow="870" windowWidth="56790" windowHeight="15405" xr2:uid="{64765354-9D7D-4F47-919F-EB7FC1D4D33A}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>PIN</t>
   </si>
@@ -56,24 +56,9 @@
     <t>D8</t>
   </si>
   <si>
-    <t>OUTPUT</t>
-  </si>
-  <si>
-    <t>STEP</t>
-  </si>
-  <si>
-    <t>DIRECTION</t>
-  </si>
-  <si>
-    <t>ENABLE</t>
-  </si>
-  <si>
     <t>MODULE</t>
   </si>
   <si>
-    <t>STEPPER DRIVER</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -123,18 +108,6 @@
   </si>
   <si>
     <t>D19</t>
-  </si>
-  <si>
-    <t>INPUT</t>
-  </si>
-  <si>
-    <t>E-STOP</t>
-  </si>
-  <si>
-    <t>E-STOP1</t>
-  </si>
-  <si>
-    <t>E-STOP2</t>
   </si>
 </sst>
 </file>
@@ -184,11 +157,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -635,7 +607,7 @@
   <dimension ref="A3:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B6" sqref="B6:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,198 +629,168 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>

--- a/pin_out.xlsx
+++ b/pin_out.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.vanderweerd\Documents\PlatformIO\Projects\accel_stepper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.vanderweerd\Documents\PlatformIO\Projects\thermo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DE9BC9-DF7F-44D1-8FED-183C36506B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900294B1-2FE4-4FE8-AD6B-13D1D81CD935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="870" windowWidth="56790" windowHeight="15405" xr2:uid="{64765354-9D7D-4F47-919F-EB7FC1D4D33A}"/>
+    <workbookView xWindow="-28920" yWindow="405" windowWidth="29040" windowHeight="15990" xr2:uid="{64765354-9D7D-4F47-919F-EB7FC1D4D33A}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>PIN</t>
   </si>
@@ -56,9 +56,24 @@
     <t>D8</t>
   </si>
   <si>
+    <t>OUTPUT</t>
+  </si>
+  <si>
+    <t>STEP</t>
+  </si>
+  <si>
+    <t>DIRECTION</t>
+  </si>
+  <si>
+    <t>ENABLE</t>
+  </si>
+  <si>
     <t>MODULE</t>
   </si>
   <si>
+    <t>STEPPER DRIVER</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
@@ -108,6 +123,12 @@
   </si>
   <si>
     <t>D19</t>
+  </si>
+  <si>
+    <t>INPUT</t>
+  </si>
+  <si>
+    <t>E-STOP</t>
   </si>
 </sst>
 </file>
@@ -157,10 +178,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -607,7 +629,7 @@
   <dimension ref="A3:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,168 +651,198 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>

--- a/pin_out.xlsx
+++ b/pin_out.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.vanderweerd\Documents\PlatformIO\Projects\thermo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.vanderweerd\Documents\PlatformIO\Projects\accel_stepper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900294B1-2FE4-4FE8-AD6B-13D1D81CD935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F991CCA6-4125-43F8-A8C5-E6F133AD8CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="405" windowWidth="29040" windowHeight="15990" xr2:uid="{64765354-9D7D-4F47-919F-EB7FC1D4D33A}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{64765354-9D7D-4F47-919F-EB7FC1D4D33A}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -178,11 +178,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -626,9 +625,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9995C21-2F3C-47B8-B139-2C4E7CB4309E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A3:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -655,194 +657,194 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -864,8 +866,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>

--- a/pin_out.xlsx
+++ b/pin_out.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.vanderweerd\Documents\PlatformIO\Projects\accel_stepper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.vanderweerd\Nextcloud\Documenten_Roman\Backup_zbook_08052023\Documents\Software\C++\accel_stepper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F991CCA6-4125-43F8-A8C5-E6F133AD8CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7385240-10C4-4A0A-BD7A-B86851EB670B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{64765354-9D7D-4F47-919F-EB7FC1D4D33A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>PIN</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>E-STOP</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>STOP</t>
+  </si>
+  <si>
+    <t>PUSHBUTTON</t>
   </si>
 </sst>
 </file>
@@ -184,7 +193,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -329,7 +338,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -631,7 +640,7 @@
   <dimension ref="A3:D26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,17 +819,29 @@
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
